--- a/src/test/resources/testData/PayPalTestData.xlsx
+++ b/src/test/resources/testData/PayPalTestData.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ IDEA Community Edition 2019.2\IDEA projects\RestAssuredAPI\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ivan_Kuleshin/IdeaProjects/RestAssuredAPI/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A686CAC4-F547-D84B-9F69-2D846FE6A2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="12340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createOrder" sheetId="1" r:id="rId1"/>
+    <sheet name="createInvalidOrder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>intent</t>
   </si>
@@ -45,12 +47,21 @@
   </si>
   <si>
     <t>500.00</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>three hundred bucks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,19 +373,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -396,7 +407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -411,4 +422,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A32EF61-3410-CD4F-A675-23B71781AC7D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>